--- a/normativa/Anexos/L06T01C01/L06T01C01A06.xlsx
+++ b/normativa/Anexos/L06T01C01/L06T01C01A06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEJANDRO MONRROY\DNP\PROYECTOS DE NORMATIVA\RNSFCodigoProcesalCivil\L06AuditoriaExterna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\servusr2\PublicacionCirculares\PublicacionRNSF\CambiosRNSF\ASFI_609 (ModRegFirAudiExt - FQH)\DocumentosRelacionados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,9 +248,6 @@
 (desde - hasta)</t>
   </si>
   <si>
-    <t xml:space="preserve">Experiencia específica que permita evaluar la participación en la realización de auditorías internas, externas, supervisión o consultorías en entidades supervisadas por ASFI, de acuerdo a la Categoría a la que postula incorporarse, según los requisitos dispuestos en el Anexo 4 o Anexo 5 del presente Reglamento:                              </t>
-  </si>
-  <si>
     <t>La presente información conlleva la condición de confesión, verdad y certeza jurídica, de conformidad con el Artículo 1322° del Código Civil y el Parágrafo IV del Artículo 157° del Código Procesal Civil, sujeta en caso de inexactitud o falsedad a la cancelación del trámite y a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencia específica que permita evaluar la participación en la realización de auditorías internas, externas, supervisión o consultorías en entidades supervisadas por ASFI y en auditorías externas en el mercado de valores, de acuerdo a la Categoría a la que postula incorporarse, según los requisitos dispuestos en el Anexo 4 o Anexo 5 del presente Reglamento:                              </t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +594,149 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -597,167 +746,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +782,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1062,16 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:N59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -1090,13 +1093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I1" s="97" t="s">
-        <v>68</v>
+      <c r="I1" s="41" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F3" s="96" t="s">
-        <v>67</v>
+      <c r="F3" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1116,22 +1119,22 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1151,22 +1154,22 @@
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1176,202 +1179,202 @@
       <c r="AE6" s="36"/>
     </row>
     <row r="7" spans="1:31" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
     </row>
     <row r="11" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
     </row>
     <row r="12" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
     </row>
     <row r="13" spans="1:31" s="39" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="95"/>
     </row>
     <row r="14" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
     </row>
     <row r="15" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
     </row>
     <row r="16" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
     </row>
     <row r="17" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93"/>
     </row>
     <row r="18" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
@@ -1410,76 +1413,76 @@
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="65" t="s">
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="71" t="s">
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="72"/>
+      <c r="N22" s="88"/>
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="13" t="s">
         <v>18</v>
       </c>
@@ -1490,108 +1493,108 @@
     <row r="24" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="55"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
     </row>
@@ -1632,86 +1635,86 @@
     <row r="32" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
     </row>
     <row r="33" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
     </row>
     <row r="34" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="57"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="70"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="73"/>
+      <c r="E35" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="59" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="59" t="s">
+      <c r="H35" s="63"/>
+      <c r="I35" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="59" t="s">
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="60"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14" s="10" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
@@ -1722,80 +1725,80 @@
       <c r="D36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="62"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
     </row>
     <row r="37" spans="1:14" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="8"/>
       <c r="C37" s="33"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
     </row>
     <row r="38" spans="1:14" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="8"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="60"/>
     </row>
     <row r="39" spans="1:14" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="8"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
     </row>
     <row r="40" spans="1:14" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="8"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="83"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="68"/>
     </row>
     <row r="41" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
@@ -1818,128 +1821,128 @@
       <c r="B42" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
+      <c r="C42" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
     </row>
     <row r="43" spans="1:14" s="12" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="81" t="s">
+      <c r="D43" s="63"/>
+      <c r="E43" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81" t="s">
+      <c r="H43" s="66"/>
+      <c r="I43" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81" t="s">
+      <c r="J43" s="66"/>
+      <c r="K43" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81" t="s">
+      <c r="L43" s="66"/>
+      <c r="M43" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="N43" s="81"/>
+      <c r="N43" s="66"/>
     </row>
     <row r="44" spans="1:14" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
     </row>
     <row r="45" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="87"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="58"/>
     </row>
     <row r="46" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="87"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="87"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="58"/>
     </row>
     <row r="48" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="87"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="58"/>
     </row>
     <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
@@ -1970,72 +1973,72 @@
         <v>36</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="79"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49"/>
     </row>
     <row r="52" spans="1:14" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="79"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="49"/>
     </row>
     <row r="53" spans="1:14" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="79"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="49"/>
     </row>
     <row r="54" spans="1:14" s="23" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="92"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="30"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
@@ -2050,40 +2053,40 @@
         <v>43</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="79"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
     </row>
     <row r="56" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="93" t="s">
+      <c r="C56" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="79"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="49"/>
     </row>
     <row r="57" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
@@ -2104,38 +2107,38 @@
     <row r="58" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
+      <c r="C58" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
     </row>
     <row r="59" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
@@ -2245,43 +2248,63 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="C59:N59"/>
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G53:N53"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:N52"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="I22:L23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="I35:L36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="M38:N38"/>
@@ -2302,63 +2325,43 @@
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="I35:L36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="I22:L23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C59:N59"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G53:N53"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:N52"/>
+    <mergeCell ref="C54:F54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.0629921259842521" bottom="1.2181372549019607" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2366,10 +2369,8 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 </oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;8Circular ASFI/267/14 (09/14) 
-ASFI/417/16 (09/16) Modificación 1
-ASFI/45917 (04/17) Modificación 2
-&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 6°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8Control de versiones
+Circular ASFI/609/2019 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 6°
 Título I
 Capítulo I
 Anexo 6
